--- a/Use Case Descriptions JHB.xlsx
+++ b/Use Case Descriptions JHB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Play Solitaire</t>
   </si>
@@ -84,6 +84,15 @@
     <t>plays Solitaire</t>
   </si>
   <si>
+    <t>Solitaire game</t>
+  </si>
+  <si>
+    <t>wins or loses solitaire game</t>
+  </si>
+  <si>
+    <t>displays return to main menu and play again buttons</t>
+  </si>
+  <si>
     <t>Exceptions/Extensions</t>
   </si>
   <si>
@@ -165,7 +174,7 @@
     <t>highlights slider</t>
   </si>
   <si>
-    <t>drag slider let or right</t>
+    <t>drag slider left or right</t>
   </si>
   <si>
     <t>Lowers or raises the volume</t>
@@ -652,14 +661,20 @@
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>5.0</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -668,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -678,7 +693,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -687,7 +702,7 @@
         <v>3.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -696,7 +711,7 @@
         <v>4.0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +736,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -760,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -769,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -778,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -798,10 +813,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -809,10 +824,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -820,10 +835,10 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -831,10 +846,10 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +857,7 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -853,7 +868,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -863,7 +878,7 @@
         <v>4.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +903,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -927,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -936,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -945,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -965,10 +980,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -976,10 +991,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -987,17 +1002,17 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1012,7 +1027,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1022,7 +1037,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1062,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1086,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1095,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1104,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1124,10 +1139,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1135,10 +1150,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1146,17 +1161,17 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1171,7 +1186,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1181,7 +1196,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1206,10 +1221,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1245,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1254,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1263,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1283,10 +1298,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -1294,17 +1309,17 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1324,7 +1339,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1334,7 +1349,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1373,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -1397,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1413,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1433,10 +1448,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -1444,10 +1459,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -1455,10 +1470,10 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1493,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
